--- a/test.xlsx
+++ b/test.xlsx
@@ -392,7 +392,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,7 +403,7 @@
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -431,7 +431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -443,7 +443,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -455,7 +455,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
